--- a/WLS Invoice & DO Format.xlsx
+++ b/WLS Invoice & DO Format.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{915C8AFC-9391-404E-AB12-8099D4627CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4B2FB-FDE0-4544-AA98-55AE683B62F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1560" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>INVOICE</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>QTY (TON)</t>
   </si>
   <si>
     <t>PRICE</t>
@@ -163,20 +160,11 @@
 JAKARTA UTARA</t>
   </si>
   <si>
-    <t>Wed Jun 16 2021</t>
-  </si>
-  <si>
     <t>BANK CENTRAL ASIA TBK.</t>
   </si>
   <si>
     <t>JL. H.R. RASUNA SAID KAV.C-22,
 JAKARTA SELATAN 12940</t>
-  </si>
-  <si>
-    <t>INVOICE NO.:</t>
-  </si>
-  <si>
-    <t>No.</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -326,6 +314,12 @@
       </rPr>
       <t>SJ/01/NB-WLS/V/2021</t>
     </r>
+  </si>
+  <si>
+    <t>INVOICE NO. :</t>
+  </si>
+  <si>
+    <t>QTY</t>
   </si>
 </sst>
 </file>
@@ -497,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -508,63 +502,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,15 +542,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -595,63 +550,105 @@
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,15 +967,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D8" sqref="D8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
@@ -988,34 +985,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1024,266 +1023,268 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44363</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="E7" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="44">
+        <f>C14*D14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35">
+        <f>SUM(E14:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35">
+        <f>E15*10%</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38">
+        <f>SUM(E15:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
-        <v>1</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16">
-        <f>C13*D13</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="18">
-        <f>SUM(E13:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="18">
-        <f>E14*10%</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="49">
-        <f>SUM(E14:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-    </row>
-    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:F9"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
@@ -1295,10 +1296,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1312,24 +1313,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1339,338 +1340,1375 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="4" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
-        <v>1</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="D7" s="17">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="16">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18">
+        <v>790000</v>
+      </c>
+      <c r="G7" s="19">
+        <f>E7*F7</f>
+        <v>23700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="27">
-        <v>44317</v>
-      </c>
-      <c r="E8" s="26">
-        <v>30</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="C8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="17">
+        <v>44316</v>
+      </c>
+      <c r="E8" s="9">
+        <v>29.66</v>
+      </c>
+      <c r="F8" s="18">
         <v>790000</v>
       </c>
-      <c r="G8" s="29">
-        <f>E8*F8</f>
-        <v>23700000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
-        <v>2</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="G8" s="19">
+        <f t="shared" ref="G8:G9" si="0">E8*F8</f>
+        <v>23431400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>3</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="27">
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="17">
         <v>44316</v>
       </c>
-      <c r="E9" s="14">
-        <v>29.66</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="E9" s="9">
+        <v>29.88</v>
+      </c>
+      <c r="F9" s="18">
         <v>790000</v>
       </c>
-      <c r="G9" s="29">
-        <f t="shared" ref="G9:G10" si="0">E9*F9</f>
-        <v>23431400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
-        <v>3</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="27">
-        <v>44316</v>
-      </c>
-      <c r="E10" s="14">
-        <v>29.88</v>
-      </c>
-      <c r="F10" s="28">
-        <v>790000</v>
-      </c>
-      <c r="G10" s="29">
+      <c r="G9" s="19">
         <f t="shared" si="0"/>
         <v>23605200</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>4</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="17">
+        <v>44316</v>
+      </c>
+      <c r="E10" s="16">
+        <v>29.24</v>
+      </c>
+      <c r="F10" s="18">
+        <v>790000</v>
+      </c>
+      <c r="G10" s="19">
+        <f>E10*F10</f>
+        <v>23099600</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
-        <v>4</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="16">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="17">
+        <v>44316</v>
+      </c>
+      <c r="E11" s="16">
+        <v>28.7</v>
+      </c>
+      <c r="F11" s="21">
+        <v>790000</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" ref="G11" si="1">E11*F11</f>
+        <v>22673000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>7</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>11</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>15</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>16</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>17</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>18</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
+        <v>19</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>20</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
         <v>21</v>
       </c>
-      <c r="D11" s="27">
-        <v>44316</v>
-      </c>
-      <c r="E11" s="26">
-        <v>29.24</v>
-      </c>
-      <c r="F11" s="28">
-        <v>790000</v>
-      </c>
-      <c r="G11" s="29">
-        <f>E11*F11</f>
-        <v>23099600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
-        <v>5</v>
-      </c>
-      <c r="B12" s="26" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>22</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
+        <v>23</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>24</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
         <v>25</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="27">
-        <v>44316</v>
-      </c>
-      <c r="E12" s="26">
-        <v>28.7</v>
-      </c>
-      <c r="F12" s="31">
-        <v>790000</v>
-      </c>
-      <c r="G12" s="29">
-        <f t="shared" ref="G12" si="1">E12*F12</f>
-        <v>22673000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
         <v>26</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35">
-        <f>SUM(E8:E12)</f>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="20">
+        <v>27</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
+        <v>28</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
+        <v>29</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
+        <v>30</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>31</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="20">
+        <v>32</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>33</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>34</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>35</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>36</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="20">
+        <v>37</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>38</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
+        <v>39</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>40</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
+        <v>41</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="20">
+        <v>42</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
+        <v>43</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
+        <v>44</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
+        <v>45</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>46</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="20">
+        <v>47</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>48</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>49</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>50</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>51</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="20">
+        <v>52</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>53</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>54</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>55</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>56</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="20">
+        <v>57</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>58</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>59</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>60</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
+        <v>61</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="20">
+        <v>62</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
+        <v>63</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="16">
+        <v>64</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
+        <v>65</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
+        <v>66</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="20">
+        <v>67</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
+        <v>68</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="19"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="16">
+        <v>69</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="16">
+        <v>70</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="16">
+        <v>71</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="20">
+        <v>72</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
+        <v>73</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="16">
+        <v>74</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
+        <v>75</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="16">
+        <v>76</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="20">
+        <v>77</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
+        <v>78</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="16">
+        <v>79</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="16">
+        <v>80</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="16">
+        <v>81</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="20">
+        <v>82</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="16">
+        <v>83</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="16">
+        <v>84</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="16">
+        <v>85</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="16">
+        <v>86</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="20">
+        <v>87</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="16">
+        <v>88</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="16">
+        <v>89</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="16">
+        <v>90</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="20">
+        <v>91</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="16">
+        <v>92</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="16">
+        <v>93</v>
+      </c>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="16">
+        <v>94</v>
+      </c>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="19"/>
+    </row>
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="20">
+        <v>95</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="19"/>
+    </row>
+    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="16">
+        <v>96</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="19"/>
+    </row>
+    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="16">
+        <v>97</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="16">
+        <v>98</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="19"/>
+    </row>
+    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="20">
+        <v>99</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="16">
+        <v>100</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="22">
+        <f>SUM(E7:E106)</f>
         <v>147.47999999999999</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37">
-        <f>SUM(G8:G12)</f>
+      <c r="F107" s="23"/>
+      <c r="G107" s="24">
+        <f>SUM(G7:G106)</f>
         <v>116509200</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="48"/>
+      <c r="C111" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="55">
+        <v>44015</v>
+      </c>
+      <c r="G111" s="55"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="39">
-        <v>44015</v>
-      </c>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="B112" s="48"/>
+      <c r="C112" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="40" t="s">
+      <c r="G112" s="50"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="B113" s="48"/>
+      <c r="C113" s="47">
+        <v>5040801997</v>
+      </c>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6">
-        <v>5040801997</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F30" s="2"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="49"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F124" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:E113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>

--- a/WLS Invoice & DO Format.xlsx
+++ b/WLS Invoice & DO Format.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4B2FB-FDE0-4544-AA98-55AE683B62F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF3185-D868-1546-90A2-097247A5A6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="27320" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>INVOICE</t>
   </si>
@@ -121,38 +121,6 @@
   </si>
   <si>
     <t>PT. WLS TRUST INTERNATIONAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PT. WLS TRUST INTERNATIONAL</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Apartemen Laguna Pluit Lt.02 No.81,Blok MM Pluit Timur, Jakarta Utara</t>
-    </r>
   </si>
   <si>
     <t>APARTEMEN LAGUNA PLUIT LT.02 No. 81,
@@ -321,6 +289,28 @@
   <si>
     <t>QTY</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Address:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 18 Office Park, Lt. 25, Suite A 2, Jl. TB Simatupang Kav. 18, Kel. Kebagusan, Kec. Pasar Minggu, 
+Jakarta Selatan 12520 Tel: (021) 50633500</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +323,7 @@
     <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,12 +349,6 @@
     <font>
       <b/>
       <sz val="26"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -418,7 +402,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -487,78 +471,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,89 +577,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,10 +970,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F9"/>
+    <sheetView topLeftCell="A35" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -985,36 +988,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="A1" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1046,37 +1049,37 @@
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="48"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -1087,8 +1090,8 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -1099,8 +1102,8 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
@@ -1111,72 +1114,72 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="E13" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="51"/>
     </row>
     <row r="14" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="44">
+      <c r="E14" s="52">
         <f>C14*D14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35">
+      <c r="A15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43">
         <f>SUM(E14:F14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35">
+      <c r="A16" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43">
         <f>E15*10%</f>
         <v>0</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38">
+      <c r="A17" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46">
         <f>SUM(E15:F16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
@@ -1187,14 +1190,14 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
@@ -1264,10 +1267,57 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+    </row>
+    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+    </row>
+    <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+    </row>
+    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+    </row>
+    <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
@@ -1284,10 +1334,9 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1296,10 +1345,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1313,24 +1362,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A1" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1341,26 +1390,26 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="A5" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1376,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>17</v>
@@ -2466,12 +2515,12 @@
       <c r="A99" s="16">
         <v>93</v>
       </c>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
     </row>
     <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
@@ -2551,12 +2600,12 @@
       <c r="G106" s="19"/>
     </row>
     <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="54"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="22">
         <f>SUM(E7:E106)</f>
         <v>147.47999999999999</v>
@@ -2595,112 +2644,177 @@
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="48"/>
-      <c r="C111" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="55">
+      <c r="B111" s="33"/>
+      <c r="C111" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="57"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="58">
         <v>44015</v>
       </c>
-      <c r="G111" s="55"/>
+      <c r="G111" s="58"/>
     </row>
     <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="47" t="s">
+      <c r="B112" s="33"/>
+      <c r="C112" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="50" t="s">
+      <c r="D112" s="57"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="G112" s="50"/>
+      <c r="G112" s="60"/>
     </row>
     <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="48"/>
-      <c r="C113" s="47">
+      <c r="B113" s="33"/>
+      <c r="C113" s="57">
         <v>5040801997</v>
       </c>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="57"/>
       <c r="F113" s="26"/>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
       <c r="F114" s="27"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
       <c r="F115" s="26"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="49"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
     </row>
     <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F117" s="2"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="64"/>
     </row>
     <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F118" s="2"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
     </row>
     <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F119" s="2"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
     </row>
     <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F120" s="2"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
     </row>
     <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F121" s="2"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
     </row>
     <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F122" s="2"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
     </row>
     <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="F123" s="2"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
     </row>
     <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="F124" s="2"/>
     </row>
+    <row r="125" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" s="62"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="62"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="6:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F131" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:G111"/>
+  <mergeCells count="16">
+    <mergeCell ref="A125:G125"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:E116"/>
     <mergeCell ref="F116:G116"/>
@@ -2709,8 +2823,15 @@
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="C113:E113"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:G111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/WLS Invoice & DO Format.xlsx
+++ b/WLS Invoice & DO Format.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF3185-D868-1546-90A2-097247A5A6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC61329-8B9D-544D-B250-966516C4C09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="27320" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="3" r:id="rId1"/>
@@ -556,102 +556,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,8 +972,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A12" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -988,32 +988,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -1049,37 +1049,37 @@
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="48" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -1114,72 +1114,72 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="51"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="52">
+      <c r="E14" s="56">
         <f>C14*D14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47">
         <f>SUM(E14:F14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43">
-        <f>E15*10%</f>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47">
+        <f>E15*11%</f>
         <v>0</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50">
         <f>SUM(E15:F16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
@@ -1190,14 +1190,14 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
@@ -1267,36 +1267,36 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
     </row>
     <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
@@ -1305,22 +1305,17 @@
       <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A15:D15"/>
@@ -1334,6 +1329,11 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
@@ -1347,8 +1347,8 @@
   </sheetPr>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1362,24 +1362,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1390,26 +1390,26 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -2600,12 +2600,12 @@
       <c r="G106" s="19"/>
     </row>
     <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="56"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="35"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="22">
         <f>SUM(E7:E106)</f>
         <v>147.47999999999999</v>
@@ -2644,76 +2644,76 @@
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="57" t="s">
+      <c r="B111" s="35"/>
+      <c r="C111" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="58">
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="65">
         <v>44015</v>
       </c>
-      <c r="G111" s="58"/>
+      <c r="G111" s="65"/>
     </row>
     <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="33" t="s">
+      <c r="A112" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="57" t="s">
+      <c r="B112" s="35"/>
+      <c r="C112" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="60" t="s">
+      <c r="D112" s="60"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G112" s="60"/>
+      <c r="G112" s="61"/>
     </row>
     <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="33" t="s">
+      <c r="A113" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="57">
+      <c r="B113" s="35"/>
+      <c r="C113" s="60">
         <v>5040801997</v>
       </c>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
       <c r="F113" s="26"/>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="48" t="s">
+      <c r="B114" s="35"/>
+      <c r="C114" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
+      <c r="D114" s="53"/>
+      <c r="E114" s="53"/>
       <c r="F114" s="27"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="26"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="59"/>
       <c r="G116" s="59"/>
     </row>
@@ -2723,8 +2723,8 @@
       <c r="C117" s="29"/>
       <c r="D117" s="29"/>
       <c r="E117" s="29"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
     </row>
     <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
@@ -2732,8 +2732,8 @@
       <c r="C118" s="29"/>
       <c r="D118" s="29"/>
       <c r="E118" s="29"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
     </row>
     <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
@@ -2741,8 +2741,8 @@
       <c r="C119" s="29"/>
       <c r="D119" s="29"/>
       <c r="E119" s="29"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="64"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
     </row>
     <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
@@ -2750,8 +2750,8 @@
       <c r="C120" s="29"/>
       <c r="D120" s="29"/>
       <c r="E120" s="29"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="64"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
     </row>
     <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
@@ -2759,8 +2759,8 @@
       <c r="C121" s="29"/>
       <c r="D121" s="29"/>
       <c r="E121" s="29"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="64"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
     </row>
     <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
@@ -2768,8 +2768,8 @@
       <c r="C122" s="29"/>
       <c r="D122" s="29"/>
       <c r="E122" s="29"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
     </row>
     <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
@@ -2777,22 +2777,22 @@
       <c r="C123" s="29"/>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
-      <c r="F123" s="64"/>
-      <c r="G123" s="64"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
     </row>
     <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="62" t="s">
+      <c r="A125" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B125" s="62"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="62"/>
-      <c r="G125" s="62"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
     </row>
     <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="F126" s="2"/>
@@ -2814,6 +2814,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:G111"/>
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:E116"/>
@@ -2823,13 +2830,6 @@
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="C113:E113"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:G111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0"/>
